--- a/Tiger-Heli/FrameCompare.xlsx
+++ b/Tiger-Heli/FrameCompare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\adelikat-tas\Tiger-Heli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE04BA8-EAC6-4722-B869-2319BA6AED0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC4DD72-80F4-4E19-B756-1891797FA2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14595" yWindow="3960" windowWidth="14490" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V4" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>Place</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>X=239,243</t>
+  </si>
+  <si>
+    <t>Leave Helipad 2</t>
   </si>
 </sst>
 </file>
@@ -291,7 +294,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -312,6 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
@@ -636,7 +640,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,7 +650,7 @@
     <col min="4" max="4" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -671,12 +675,12 @@
         <v>87</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D13" si="0">IF(C2&lt;&gt;"",IF(B2&lt;&gt;"",C2-B2,"-"), "-")</f>
+        <f t="shared" ref="D2:D14" si="0">IF(C2&lt;&gt;"",IF(B2&lt;&gt;"",C2-B2,"-"), "-")</f>
         <v>0</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>24</v>
       </c>
@@ -692,7 +696,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>26</v>
       </c>
@@ -707,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>27</v>
       </c>
@@ -722,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>29</v>
       </c>
@@ -737,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>30</v>
       </c>
@@ -755,8 +759,12 @@
         <f>B7-B6</f>
         <v>720</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f>12247-11527</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>31</v>
       </c>
@@ -775,7 +783,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>32</v>
       </c>
@@ -794,7 +802,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>33</v>
       </c>
@@ -813,7 +821,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>34</v>
       </c>
@@ -832,13 +840,13 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>28</v>
       </c>
@@ -851,21 +859,30 @@
         <v>-</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="15">
+        <v>24488</v>
+      </c>
+      <c r="C14" s="15">
+        <v>24488</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>

--- a/Tiger-Heli/FrameCompare.xlsx
+++ b/Tiger-Heli/FrameCompare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\adelikat-tas\Tiger-Heli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC4DD72-80F4-4E19-B756-1891797FA2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CF50E6-4828-4E63-BBFA-6AB2B85C4725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="3960" windowWidth="14490" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28095" yWindow="885" windowWidth="14490" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V4" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Place</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Leave Helipad 2</t>
+  </si>
+  <si>
+    <t>Leave Helipad 3</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -675,7 +678,7 @@
         <v>87</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D14" si="0">IF(C2&lt;&gt;"",IF(B2&lt;&gt;"",C2-B2,"-"), "-")</f>
+        <f t="shared" ref="D2:D16" si="0">IF(C2&lt;&gt;"",IF(B2&lt;&gt;"",C2-B2,"-"), "-")</f>
         <v>0</v>
       </c>
       <c r="F2" s="2"/>
@@ -876,17 +879,35 @@
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="15">
+        <v>36728</v>
+      </c>
+      <c r="C15" s="15">
+        <v>36728</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="15">
+        <v>46875</v>
+      </c>
+      <c r="C16" s="15">
+        <v>47844</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="0"/>
+        <v>969</v>
+      </c>
       <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">

--- a/Tiger-Heli/FrameCompare.xlsx
+++ b/Tiger-Heli/FrameCompare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\adelikat-tas\Tiger-Heli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CF50E6-4828-4E63-BBFA-6AB2B85C4725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862210B4-17CC-4958-92C4-AE998944241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28095" yWindow="885" windowWidth="14490" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V4" sheetId="11" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -312,13 +312,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
@@ -639,11 +633,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315779BE-0457-4CD0-8DEA-0D00DE0D8921}">
-  <dimension ref="A1:G281"/>
+  <dimension ref="A1:F280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -653,7 +647,7 @@
     <col min="4" max="4" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,8 +661,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
@@ -678,13 +672,13 @@
         <v>87</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D16" si="0">IF(C2&lt;&gt;"",IF(B2&lt;&gt;"",C2-B2,"-"), "-")</f>
+        <f t="shared" ref="D2:D15" si="0">IF(C2&lt;&gt;"",IF(B2&lt;&gt;"",C2-B2,"-"), "-")</f>
         <v>0</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2">
@@ -699,8 +693,8 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2">
@@ -714,8 +708,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="2">
@@ -729,8 +723,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2">
@@ -744,8 +738,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="2">
@@ -758,17 +752,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7">
-        <f>B7-B6</f>
-        <v>720</v>
-      </c>
-      <c r="G7">
-        <f>12247-11527</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="2">
@@ -781,13 +767,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8">
-        <f>B8-B7</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="2">
@@ -800,13 +782,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9">
-        <f>B9-B8</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="2">
@@ -819,13 +797,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10">
-        <f>B10-B9</f>
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="2">
@@ -838,776 +812,648 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11">
-        <f>B11-B10</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2"/>
+      <c r="C12" s="2">
+        <v>11525</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2">
+        <v>24488</v>
+      </c>
       <c r="C13" s="2">
-        <v>11525</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="15">
         <v>24488</v>
       </c>
-      <c r="C14" s="15">
-        <v>24488</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B14" s="2">
         <v>36728</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C14" s="2">
         <v>36728</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="15">
-        <v>46875</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="B15" s="2">
+        <v>46805</v>
+      </c>
+      <c r="C15" s="2">
         <v>47844</v>
       </c>
-      <c r="D16" s="16">
-        <f t="shared" si="0"/>
-        <v>969</v>
-      </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
-    </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
-    </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-    </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-    </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-    </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-    </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-    </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-    </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-    </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-    </row>
-    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-    </row>
-    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-    </row>
-    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-    </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-    </row>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-    </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-    </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-    </row>
-    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="16"/>
-    </row>
-    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="16"/>
-    </row>
-    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="16"/>
-    </row>
-    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="16"/>
-    </row>
-    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="16"/>
-    </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="16"/>
-    </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="16"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="16"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
-    </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
-    </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
-    </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
-    </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
-    </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
-    </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="16"/>
-    </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
-    </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="16"/>
-    </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="16"/>
-    </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="16"/>
-    </row>
-    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-    </row>
-    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-    </row>
-    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-    </row>
-    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-    </row>
-    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-    </row>
-    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-    </row>
-    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-    </row>
-    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-    </row>
-    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-    </row>
-    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-    </row>
-    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-    </row>
-    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-    </row>
-    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-    </row>
-    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+    <row r="109" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="7"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
       <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D110" s="3"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -1791,7 +1637,6 @@
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
-      <c r="D142" s="3"/>
     </row>
     <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
@@ -1799,7 +1644,6 @@
       <c r="C143" s="4"/>
     </row>
     <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
     </row>
@@ -2346,10 +2190,6 @@
     <row r="280" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
-    </row>
-    <row r="281" spans="2:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B281" s="4"/>
-      <c r="C281" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
